--- a/Documents/Analysis & Design/UI design/UI Device.xlsx
+++ b/Documents/Analysis & Design/UI design/UI Device.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="19155" windowHeight="8445"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="19155" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="SMO" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>1     2      3      A
 4     5      6      B
@@ -87,9 +87,6 @@
     <t>Delay 5s and back 1</t>
   </si>
   <si>
-    <t>Delay 10s and back 1</t>
-  </si>
-  <si>
     <t>Click B - 2</t>
   </si>
   <si>
@@ -153,13 +150,14 @@
     </r>
   </si>
   <si>
-    <t>Waiting…!</t>
-  </si>
-  <si>
     <t>(!) : Mã số món và số lượng
 Delay : thời gian chờ check dữ liệu bên máy chủ
 Screen 5 : Chưa order gì cã
          Click nhưng ko có response nào.</t>
+  </si>
+  <si>
+    <t>Proceed?
+*- No  #- Yes</t>
   </si>
 </sst>
 </file>
@@ -1333,25 +1331,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Multiply 24"/>
+        <xdr:cNvPr id="27" name="Multiply 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="1828800"/>
+          <a:off x="5895975" y="1257300"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1393,23 +1391,23 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Multiply 26"/>
+        <xdr:cNvPr id="28" name="Multiply 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="1257300"/>
+          <a:off x="5895975" y="1447800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1451,23 +1449,23 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Multiply 27"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Multiply 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="1447800"/>
+          <a:off x="5895975" y="1628775"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1507,25 +1505,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Multiply 28"/>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Multiply 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895975" y="1628775"/>
+          <a:off x="8343900" y="1447800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1565,25 +1563,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Multiply 29"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Multiply 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5876925" y="1819275"/>
+          <a:off x="8353425" y="1619250"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1623,25 +1621,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Multiply 30"/>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Multiply 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8343900" y="1447800"/>
+          <a:off x="10772775" y="1266825"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1681,25 +1679,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Multiply 31"/>
+        <xdr:cNvPr id="34" name="Multiply 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8353425" y="1619250"/>
+          <a:off x="10763250" y="1428750"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1741,23 +1739,23 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Multiply 32"/>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Multiply 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772775" y="1266825"/>
+          <a:off x="10772775" y="1609725"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1798,24 +1796,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Multiply 33"/>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Multiply 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10763250" y="1428750"/>
+          <a:off x="10782300" y="1828800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1855,25 +1853,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Multiply 34"/>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Multiply 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772775" y="1609725"/>
+          <a:off x="5905500" y="3657600"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1913,25 +1911,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Multiply 35"/>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Multiply 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10782300" y="1828800"/>
+          <a:off x="5905500" y="3867150"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1971,25 +1969,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>220028</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>18097</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Right Arrow 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8201025" y="2476500"/>
+          <a:ext cx="504825" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Multiply 37"/>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Multiply 52"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="3657600"/>
+          <a:off x="3448050" y="1266824"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2029,25 +2081,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Multiply 38"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Multiply 53"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="3867150"/>
+          <a:off x="3457575" y="1447800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2088,78 +2140,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>220028</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>37147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>18097</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>151447</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Right Arrow 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8201025" y="2476500"/>
-          <a:ext cx="504825" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Multiply 52"/>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Multiply 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1266824"/>
+          <a:off x="3448050" y="1638300"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2201,23 +2199,23 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Multiply 53"/>
+        <xdr:cNvPr id="56" name="Multiply 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="1447800"/>
+          <a:off x="3457575" y="1828800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2257,25 +2255,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Multiply 54"/>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Multiply 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1638300"/>
+          <a:off x="3448050" y="1266824"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2315,25 +2313,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Multiply 55"/>
+        <xdr:cNvPr id="58" name="Multiply 57"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="1828800"/>
+          <a:off x="3457575" y="1447800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2375,23 +2373,23 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Multiply 56"/>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Multiply 58"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1266824"/>
+          <a:off x="3448050" y="1638300"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2433,23 +2431,23 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Multiply 57"/>
+        <xdr:cNvPr id="60" name="Multiply 59"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="1447800"/>
+          <a:off x="3457575" y="1828800"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2489,25 +2487,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Multiply 58"/>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Multiply 60"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1638300"/>
+          <a:off x="3448050" y="1266824"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2547,25 +2545,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Multiply 59"/>
+        <xdr:cNvPr id="63" name="Multiply 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457575" y="1828800"/>
+          <a:off x="3448050" y="1638300"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2605,25 +2603,242 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Oval 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="2552700"/>
+          <a:ext cx="285750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Multiply 60"/>
+      <xdr:rowOff>17144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Right Arrow 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7010400" y="5762625"/>
+          <a:ext cx="504825" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Right Arrow 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4552950" y="5743575"/>
+          <a:ext cx="504825" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>191453</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>237172</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Right Arrow 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5734050" y="7048500"/>
+          <a:ext cx="504825" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Multiply 69"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1266824"/>
+          <a:off x="5895975" y="8115300"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2663,25 +2878,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>210503</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>8572</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Right Arrow 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8191500" y="4686300"/>
+          <a:ext cx="504825" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Multiply 62"/>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Multiply 70"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="1638300"/>
+          <a:off x="5905500" y="3867150"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2721,243 +2990,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Oval 64"/>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Multiply 72"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829800" y="2552700"/>
-          <a:ext cx="285750" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>17144</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Right Arrow 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7010400" y="5762625"/>
-          <a:ext cx="504825" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>188594</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Right Arrow 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4552950" y="5743575"/>
-          <a:ext cx="504825" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>191453</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>65722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>237172</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180022</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Right Arrow 68"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5734050" y="7048500"/>
-          <a:ext cx="504825" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Multiply 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5895975" y="8115300"/>
-          <a:ext cx="266700" cy="200025"/>
+          <a:off x="180974" y="3381375"/>
+          <a:ext cx="1247775" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -2996,25 +3048,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>210503</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>27622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>8572</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>141922</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Right Arrow 65"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246697</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Right Arrow 73"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8191500" y="4686300"/>
+          <a:off x="619125" y="2486025"/>
           <a:ext cx="504825" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3050,26 +3102,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Oval 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="2552700"/>
+          <a:ext cx="285750" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Multiply 70"/>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Multiply 75"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="3867150"/>
-          <a:ext cx="266700" cy="200025"/>
+          <a:off x="9906000" y="3381375"/>
+          <a:ext cx="1114425" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -3108,26 +3215,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Multiply 72"/>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Multiply 76"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180974" y="3381375"/>
-          <a:ext cx="1247775" cy="904875"/>
+          <a:off x="2828925" y="3657600"/>
+          <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -3166,135 +3273,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200978</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>46672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>246697</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160972</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Right Arrow 73"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="619125" y="2486025"/>
-          <a:ext cx="504825" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Oval 74"/>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Multiply 61"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="2552700"/>
-          <a:ext cx="285750" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Multiply 75"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9925050" y="3371850"/>
-          <a:ext cx="1247775" cy="904875"/>
+          <a:off x="10782300" y="3467100"/>
+          <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -3333,25 +3331,199 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Multiply 76"/>
+        <xdr:cNvPr id="64" name="Multiply 63"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="3657600"/>
+          <a:off x="10782300" y="3657600"/>
+          <a:ext cx="266700" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Multiply 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="3886200"/>
+          <a:ext cx="266700" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Multiply 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="4057650"/>
+          <a:ext cx="266700" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Multiply 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="4038600"/>
           <a:ext cx="266700" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -3681,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20:AB23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,7 +3968,7 @@
       <c r="AF5" s="10"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK5" s="26"/>
       <c r="AL5" s="26"/>
@@ -4147,7 +4319,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
@@ -4157,7 +4329,9 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="15"/>
+      <c r="R12" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="S12" s="12"/>
       <c r="T12" s="7"/>
       <c r="U12" s="10"/>
@@ -4166,7 +4340,9 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="15"/>
+      <c r="AC12" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="AD12" s="12"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="10"/>
@@ -4263,7 +4439,7 @@
       <c r="I17" s="13"/>
       <c r="M17" s="10"/>
       <c r="N17" s="39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -4648,15 +4824,13 @@
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO24" s="12"/>
       <c r="AP24" s="7"/>
       <c r="AT24" s="5"/>
       <c r="AU24" s="20"/>
-      <c r="AV24" s="23" t="s">
-        <v>20</v>
-      </c>
+      <c r="AV24" s="23"/>
       <c r="AW24" s="12"/>
       <c r="AX24" s="12"/>
       <c r="AY24" s="18"/>
@@ -4711,7 +4885,7 @@
       <c r="C29" s="21"/>
       <c r="M29" s="8"/>
       <c r="N29" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
@@ -4898,7 +5072,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S35" s="11"/>
       <c r="T35" s="1"/>
@@ -5043,7 +5217,7 @@
       <c r="AA47" s="37"/>
       <c r="AB47" s="38"/>
       <c r="AC47" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD47" s="11"/>
       <c r="AE47" s="1"/>
@@ -5063,6 +5237,17 @@
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="Y41:AD42"/>
+    <mergeCell ref="Y44:AB47"/>
+    <mergeCell ref="N17:V24"/>
+    <mergeCell ref="AJ29:AO30"/>
+    <mergeCell ref="AJ32:AM35"/>
+    <mergeCell ref="Y29:AD30"/>
+    <mergeCell ref="Y32:AB35"/>
+    <mergeCell ref="N29:S30"/>
+    <mergeCell ref="N32:Q35"/>
+    <mergeCell ref="Y17:AD18"/>
+    <mergeCell ref="Y20:AB23"/>
     <mergeCell ref="C17:H18"/>
     <mergeCell ref="C20:F23"/>
     <mergeCell ref="AU5:AZ6"/>
@@ -5079,17 +5264,6 @@
     <mergeCell ref="C8:F11"/>
     <mergeCell ref="N8:Q11"/>
     <mergeCell ref="Y8:AB11"/>
-    <mergeCell ref="Y41:AD42"/>
-    <mergeCell ref="Y44:AB47"/>
-    <mergeCell ref="N17:V24"/>
-    <mergeCell ref="AJ29:AO30"/>
-    <mergeCell ref="AJ32:AM35"/>
-    <mergeCell ref="Y29:AD30"/>
-    <mergeCell ref="Y32:AB35"/>
-    <mergeCell ref="N29:S30"/>
-    <mergeCell ref="N32:Q35"/>
-    <mergeCell ref="Y17:AD18"/>
-    <mergeCell ref="Y20:AB23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
